--- a/data_raw/item_banks/classical_composer_item_bank.xlsx
+++ b/data_raw/item_banks/classical_composer_item_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpiquiz\data_raw\item_banks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0673D-3696-4983-B720-832AD01F2670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276694F-D86F-42F7-8FFE-585C27AA42AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>Giuseppe Sarti</t>
+  </si>
+  <si>
+    <t>Arcangelo Corelli</t>
+  </si>
+  <si>
+    <t>Muzio Clementi</t>
+  </si>
+  <si>
+    <t>Francesco Geminiani</t>
+  </si>
+  <si>
+    <t>Johann Adolph Hasse</t>
   </si>
 </sst>
 </file>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1512,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>